--- a/data/pca/factorExposure/factorExposure_2010-01-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-01-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.003793325438543335</v>
+        <v>0.01689136329782554</v>
       </c>
       <c r="C2">
-        <v>0.01483212630453049</v>
+        <v>-0.001214015945650622</v>
       </c>
       <c r="D2">
-        <v>0.00628652638179958</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.006078975066040324</v>
+      </c>
+      <c r="E2">
+        <v>0.0002233157444327496</v>
+      </c>
+      <c r="F2">
+        <v>-0.0113722730338174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.02981178155414908</v>
+        <v>0.09396665992007384</v>
       </c>
       <c r="C4">
-        <v>0.1255919480683967</v>
+        <v>-0.01575512177625045</v>
       </c>
       <c r="D4">
-        <v>-0.008557349126842142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08410608359847482</v>
+      </c>
+      <c r="E4">
+        <v>-0.0287191913298946</v>
+      </c>
+      <c r="F4">
+        <v>0.03122352586699384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03697559165902641</v>
+        <v>0.156346560097966</v>
       </c>
       <c r="C6">
-        <v>0.1091968159827442</v>
+        <v>-0.02541771101547894</v>
       </c>
       <c r="D6">
-        <v>0.04079185784187363</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02333090498761646</v>
+      </c>
+      <c r="E6">
+        <v>-0.009049261120233581</v>
+      </c>
+      <c r="F6">
+        <v>0.04525219507058777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.01006891057859647</v>
+        <v>0.06241099104003121</v>
       </c>
       <c r="C7">
-        <v>0.07786770019517751</v>
+        <v>0.0007897912506333401</v>
       </c>
       <c r="D7">
-        <v>-0.003128992572669449</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05135066747562291</v>
+      </c>
+      <c r="E7">
+        <v>-0.009893073181898152</v>
+      </c>
+      <c r="F7">
+        <v>0.04564151361838822</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.002987889012918628</v>
+        <v>0.05733179930486765</v>
       </c>
       <c r="C8">
-        <v>0.05837241606909071</v>
+        <v>0.0133640779851633</v>
       </c>
       <c r="D8">
-        <v>0.02073299648457818</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03346114759644979</v>
+      </c>
+      <c r="E8">
+        <v>-0.01747765453794847</v>
+      </c>
+      <c r="F8">
+        <v>-0.02822986292539078</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02486727500659939</v>
+        <v>0.07139289244410443</v>
       </c>
       <c r="C9">
-        <v>0.1019416498770275</v>
+        <v>-0.01164151671154038</v>
       </c>
       <c r="D9">
-        <v>-0.02321723525864311</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08599807620890157</v>
+      </c>
+      <c r="E9">
+        <v>-0.02335650060009504</v>
+      </c>
+      <c r="F9">
+        <v>0.04710918169567413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.01099047604405749</v>
+        <v>0.0954381026868785</v>
       </c>
       <c r="C10">
-        <v>0.01980154920617791</v>
+        <v>-0.0194418571673771</v>
       </c>
       <c r="D10">
-        <v>0.1555437678586382</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1705877482775773</v>
+      </c>
+      <c r="E10">
+        <v>0.03656528962930155</v>
+      </c>
+      <c r="F10">
+        <v>-0.05352152703596133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.02902197112293724</v>
+        <v>0.08803097337645205</v>
       </c>
       <c r="C11">
-        <v>0.1091664660849196</v>
+        <v>-0.01114524014192613</v>
       </c>
       <c r="D11">
-        <v>-0.03956250172165431</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1161734954823503</v>
+      </c>
+      <c r="E11">
+        <v>-0.04619015965988147</v>
+      </c>
+      <c r="F11">
+        <v>0.02130670354482138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.02650010305505225</v>
+        <v>0.09174329884028137</v>
       </c>
       <c r="C12">
-        <v>0.1193262728423565</v>
+        <v>-0.008219195249166419</v>
       </c>
       <c r="D12">
-        <v>-0.03592881359123782</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1318865696342536</v>
+      </c>
+      <c r="E12">
+        <v>-0.04727826585369305</v>
+      </c>
+      <c r="F12">
+        <v>0.02524547370420927</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.009182487275749756</v>
+        <v>0.04207990932754415</v>
       </c>
       <c r="C13">
-        <v>0.04223038536616372</v>
+        <v>-0.003662735282551099</v>
       </c>
       <c r="D13">
-        <v>-0.02336389366251548</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05092519104618978</v>
+      </c>
+      <c r="E13">
+        <v>0.01016419806716234</v>
+      </c>
+      <c r="F13">
+        <v>0.002527390790843127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01602039722900155</v>
+        <v>0.02299331489618978</v>
       </c>
       <c r="C14">
-        <v>0.02356284956232939</v>
+        <v>-0.01395733862607182</v>
       </c>
       <c r="D14">
-        <v>0.0004235013051843638</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03351079529554946</v>
+      </c>
+      <c r="E14">
+        <v>-0.0168618223641973</v>
+      </c>
+      <c r="F14">
+        <v>0.01421368150805116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01034254417028009</v>
+        <v>0.03224242214612797</v>
       </c>
       <c r="C15">
-        <v>0.02948062049270405</v>
+        <v>-0.005026224089651856</v>
       </c>
       <c r="D15">
-        <v>-0.01844036286600874</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04524679522243399</v>
+      </c>
+      <c r="E15">
+        <v>-0.006408738548388139</v>
+      </c>
+      <c r="F15">
+        <v>0.02247350957763523</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.01833429327595626</v>
+        <v>0.07394457976266636</v>
       </c>
       <c r="C16">
-        <v>0.1114542253514272</v>
+        <v>-0.002182453080004341</v>
       </c>
       <c r="D16">
-        <v>-0.01637189606927373</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1261127618395439</v>
+      </c>
+      <c r="E16">
+        <v>-0.061312918627756</v>
+      </c>
+      <c r="F16">
+        <v>0.02456267476488637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03112371806878672</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003452568238180337</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01969353177466676</v>
+      </c>
+      <c r="E18">
+        <v>0.007160695509366441</v>
+      </c>
+      <c r="F18">
+        <v>-0.002858687796646837</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01151641692380333</v>
+        <v>0.06105764366537222</v>
       </c>
       <c r="C20">
-        <v>0.06618782180013248</v>
+        <v>-0.0007150708648234409</v>
       </c>
       <c r="D20">
-        <v>-0.01025646567931574</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07677620746072492</v>
+      </c>
+      <c r="E20">
+        <v>-0.05546484064783164</v>
+      </c>
+      <c r="F20">
+        <v>0.02287504191995237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01261552051443952</v>
+        <v>0.04047547042456483</v>
       </c>
       <c r="C21">
-        <v>0.0231845505115241</v>
+        <v>-0.006674999867743807</v>
       </c>
       <c r="D21">
-        <v>0.001509333762528724</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03685911799506707</v>
+      </c>
+      <c r="E21">
+        <v>0.005911504738834309</v>
+      </c>
+      <c r="F21">
+        <v>-0.02506895985019214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.004249108330646408</v>
+        <v>0.04355790821114938</v>
       </c>
       <c r="C22">
-        <v>0.02667675169116345</v>
+        <v>-0.001120924066056592</v>
       </c>
       <c r="D22">
-        <v>0.03543153152155515</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.00266972031637437</v>
+      </c>
+      <c r="E22">
+        <v>-0.02845316017346622</v>
+      </c>
+      <c r="F22">
+        <v>-0.03197838603416393</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.004237084172258612</v>
+        <v>0.04354331473381132</v>
       </c>
       <c r="C23">
-        <v>0.02660450178628715</v>
+        <v>-0.001116626831808112</v>
       </c>
       <c r="D23">
-        <v>0.03547184107257807</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002674854177344741</v>
+      </c>
+      <c r="E23">
+        <v>-0.02865478978159614</v>
+      </c>
+      <c r="F23">
+        <v>-0.03194224133785779</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.01857636150797114</v>
+        <v>0.08043414656238236</v>
       </c>
       <c r="C24">
-        <v>0.115376010722572</v>
+        <v>-0.002776450842299971</v>
       </c>
       <c r="D24">
-        <v>-0.02535649058142308</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1202232194540066</v>
+      </c>
+      <c r="E24">
+        <v>-0.04958356815075642</v>
+      </c>
+      <c r="F24">
+        <v>0.02537263267608571</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.02384420238620399</v>
+        <v>0.08515729453070388</v>
       </c>
       <c r="C25">
-        <v>0.1188506940908726</v>
+        <v>-0.00490984065070619</v>
       </c>
       <c r="D25">
-        <v>-0.02540432661130857</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1090394256185632</v>
+      </c>
+      <c r="E25">
+        <v>-0.03249105532206321</v>
+      </c>
+      <c r="F25">
+        <v>0.02634979417026519</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02345414580833911</v>
+        <v>0.05777666859244144</v>
       </c>
       <c r="C26">
-        <v>0.05107308711616859</v>
+        <v>-0.01466746156891484</v>
       </c>
       <c r="D26">
-        <v>0.02205049674374971</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04036902278083945</v>
+      </c>
+      <c r="E26">
+        <v>-0.02736114606806758</v>
+      </c>
+      <c r="F26">
+        <v>-0.00986549263935097</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.003746399826024966</v>
+        <v>0.1408768234064992</v>
       </c>
       <c r="C28">
-        <v>0.01750377479906762</v>
+        <v>-0.01881603481226959</v>
       </c>
       <c r="D28">
-        <v>0.2133147260520155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2636802351358261</v>
+      </c>
+      <c r="E28">
+        <v>0.06780710423343987</v>
+      </c>
+      <c r="F28">
+        <v>0.00870640447267151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01283571866332727</v>
+        <v>0.02748806615322806</v>
       </c>
       <c r="C29">
-        <v>0.02787805730238489</v>
+        <v>-0.008150329892698106</v>
       </c>
       <c r="D29">
-        <v>0.01127339555469361</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03288126164828257</v>
+      </c>
+      <c r="E29">
+        <v>-0.01128147984813283</v>
+      </c>
+      <c r="F29">
+        <v>-0.01055606481277156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.01558047122530955</v>
+        <v>0.06244268224185561</v>
       </c>
       <c r="C30">
-        <v>0.127607645698731</v>
+        <v>-0.004246764497529663</v>
       </c>
       <c r="D30">
-        <v>-0.01753151986103788</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08647749531700283</v>
+      </c>
+      <c r="E30">
+        <v>-0.02013949292978491</v>
+      </c>
+      <c r="F30">
+        <v>0.08185721754575524</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02160882796613385</v>
+        <v>0.04993074162670914</v>
       </c>
       <c r="C31">
-        <v>0.0364870318778644</v>
+        <v>-0.01522717539901106</v>
       </c>
       <c r="D31">
-        <v>-0.0001362320197289101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02502906719136876</v>
+      </c>
+      <c r="E31">
+        <v>-0.02730288669931195</v>
+      </c>
+      <c r="F31">
+        <v>-0.002167170415959578</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.006731384697129117</v>
+        <v>0.04991760940984549</v>
       </c>
       <c r="C32">
-        <v>0.05648023751227093</v>
+        <v>0.001327919761755782</v>
       </c>
       <c r="D32">
-        <v>0.02005349340272028</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03619164273558876</v>
+      </c>
+      <c r="E32">
+        <v>-0.03065602841543629</v>
+      </c>
+      <c r="F32">
+        <v>0.001272135806067505</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02233179692569835</v>
+        <v>0.08970889472466276</v>
       </c>
       <c r="C33">
-        <v>0.1152411718478839</v>
+        <v>-0.008371860586523608</v>
       </c>
       <c r="D33">
-        <v>-0.01838947655286167</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.09849488528592526</v>
+      </c>
+      <c r="E33">
+        <v>-0.04471115385581679</v>
+      </c>
+      <c r="F33">
+        <v>0.03449398261569352</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.02590406217490442</v>
+        <v>0.06844818737270505</v>
       </c>
       <c r="C34">
-        <v>0.09837617988065146</v>
+        <v>-0.01136659846604053</v>
       </c>
       <c r="D34">
-        <v>-0.01655246813636164</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1065526724147822</v>
+      </c>
+      <c r="E34">
+        <v>-0.03463022818530914</v>
+      </c>
+      <c r="F34">
+        <v>0.03375554008236317</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.003750287409463728</v>
+        <v>0.02378614102946279</v>
       </c>
       <c r="C35">
-        <v>0.01522953406559412</v>
+        <v>-0.002362392631932996</v>
       </c>
       <c r="D35">
-        <v>-0.01020402645419861</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01244933855478896</v>
+      </c>
+      <c r="E35">
+        <v>-0.01154451058962892</v>
+      </c>
+      <c r="F35">
+        <v>0.0008401302426023986</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01082197467042174</v>
+        <v>0.02726556255846555</v>
       </c>
       <c r="C36">
-        <v>0.03049336842598948</v>
+        <v>-0.007184854343913945</v>
       </c>
       <c r="D36">
-        <v>-0.009959249276184788</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03987109706901991</v>
+      </c>
+      <c r="E36">
+        <v>-0.01565788387030398</v>
+      </c>
+      <c r="F36">
+        <v>0.01563053566331351</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0004628690435909396</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>6.446823644027618e-05</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.000434201634362257</v>
+      </c>
+      <c r="E37">
+        <v>8.950330391449841e-05</v>
+      </c>
+      <c r="F37">
+        <v>0.0005495133542305701</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0005342773240214865</v>
+        <v>0.001225280964321235</v>
       </c>
       <c r="C38">
-        <v>0.003834295910733749</v>
+        <v>-0.0001755984888842401</v>
       </c>
       <c r="D38">
-        <v>0.001416996590660238</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0007832585928933164</v>
+      </c>
+      <c r="E38">
+        <v>-0.0009401753254563501</v>
+      </c>
+      <c r="F38">
+        <v>-0.000709857926987012</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04155225702287753</v>
+        <v>0.1059646760835149</v>
       </c>
       <c r="C39">
-        <v>0.1770133663572516</v>
+        <v>-0.01666099526057676</v>
       </c>
       <c r="D39">
-        <v>-0.04604452387097767</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1536891290997686</v>
+      </c>
+      <c r="E39">
+        <v>-0.0589708127709976</v>
+      </c>
+      <c r="F39">
+        <v>0.02796507318526022</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01133678403719826</v>
+        <v>0.04099158422533428</v>
       </c>
       <c r="C40">
-        <v>0.01528808732445236</v>
+        <v>-0.007240197374079592</v>
       </c>
       <c r="D40">
-        <v>0.01326601984594062</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03143375205247111</v>
+      </c>
+      <c r="E40">
+        <v>-0.002761534744502981</v>
+      </c>
+      <c r="F40">
+        <v>-0.01529706928037375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.0111881139647273</v>
+        <v>0.02749967717632524</v>
       </c>
       <c r="C41">
-        <v>0.02080582928943854</v>
+        <v>-0.006527870437550502</v>
       </c>
       <c r="D41">
-        <v>0.01720538801934806</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01082415229936124</v>
+      </c>
+      <c r="E41">
+        <v>-0.01210170822596921</v>
+      </c>
+      <c r="F41">
+        <v>-0.0056991208158821</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01314948659319446</v>
+        <v>0.04041159645872327</v>
       </c>
       <c r="C43">
-        <v>0.02808070941897296</v>
+        <v>-0.006735879721174177</v>
       </c>
       <c r="D43">
-        <v>0.0094353602710075</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02069542523554345</v>
+      </c>
+      <c r="E43">
+        <v>-0.02488059818781936</v>
+      </c>
+      <c r="F43">
+        <v>-0.01194889869110046</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.03086419927936996</v>
+        <v>0.07929354565645981</v>
       </c>
       <c r="C44">
-        <v>0.1317308179828319</v>
+        <v>-0.02067816610728867</v>
       </c>
       <c r="D44">
-        <v>-0.004794726257654956</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09931377630713191</v>
+      </c>
+      <c r="E44">
+        <v>-0.0668164838090316</v>
+      </c>
+      <c r="F44">
+        <v>0.1539806812233286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.005542891472499262</v>
+        <v>0.02327312146092775</v>
       </c>
       <c r="C46">
-        <v>0.003882026315689911</v>
+        <v>-0.003748619790388795</v>
       </c>
       <c r="D46">
-        <v>0.01438236899659248</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01339906324458635</v>
+      </c>
+      <c r="E46">
+        <v>-0.02193038411925427</v>
+      </c>
+      <c r="F46">
+        <v>-0.004439058053289129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.00999020371791077</v>
+        <v>0.05065274608694049</v>
       </c>
       <c r="C47">
-        <v>0.03200386107848151</v>
+        <v>-0.003564237897854838</v>
       </c>
       <c r="D47">
-        <v>0.02698719530136204</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01397231252764636</v>
+      </c>
+      <c r="E47">
+        <v>-0.02332087784715628</v>
+      </c>
+      <c r="F47">
+        <v>-0.03297560583972516</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01172322968558964</v>
+        <v>0.04927894719890941</v>
       </c>
       <c r="C48">
-        <v>0.05067719339189193</v>
+        <v>-0.002590049472653013</v>
       </c>
       <c r="D48">
-        <v>-0.01350114430750395</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05036598099339319</v>
+      </c>
+      <c r="E48">
+        <v>0.006945381801279203</v>
+      </c>
+      <c r="F48">
+        <v>0.009527306066235084</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.03621733002100708</v>
+        <v>0.1994664268019191</v>
       </c>
       <c r="C49">
-        <v>0.1990240307302077</v>
+        <v>-0.01872692717474904</v>
       </c>
       <c r="D49">
-        <v>0.07536557379274794</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.008565217105810232</v>
+      </c>
+      <c r="E49">
+        <v>-0.03119681013756636</v>
+      </c>
+      <c r="F49">
+        <v>0.03810143036384561</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.0181989023874117</v>
+        <v>0.05054455961645504</v>
       </c>
       <c r="C50">
-        <v>0.04071113169333305</v>
+        <v>-0.01119466642547953</v>
       </c>
       <c r="D50">
-        <v>0.008539777543159517</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02361464701530992</v>
+      </c>
+      <c r="E50">
+        <v>-0.0292921566248311</v>
+      </c>
+      <c r="F50">
+        <v>0.008604738984204529</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0004767717381573939</v>
+        <v>0.001003834846000005</v>
       </c>
       <c r="C51">
-        <v>0.002597256006713294</v>
+        <v>-0.000294404330641027</v>
       </c>
       <c r="D51">
-        <v>0.004334946490151803</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0008357589320917311</v>
+      </c>
+      <c r="E51">
+        <v>-6.965378243147627e-06</v>
+      </c>
+      <c r="F51">
+        <v>0.003139498210223856</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.02968113497558936</v>
+        <v>0.1461125725678303</v>
       </c>
       <c r="C52">
-        <v>0.1506772958106149</v>
+        <v>-0.01538274997286071</v>
       </c>
       <c r="D52">
-        <v>-0.01942916838921143</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04625912714448567</v>
+      </c>
+      <c r="E52">
+        <v>-0.02080858624651902</v>
+      </c>
+      <c r="F52">
+        <v>0.04092961020088071</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.03073984597398054</v>
+        <v>0.1724633933820872</v>
       </c>
       <c r="C53">
-        <v>0.1702407409165531</v>
+        <v>-0.01873072033337953</v>
       </c>
       <c r="D53">
-        <v>0.02242759536803767</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005628268810794038</v>
+      </c>
+      <c r="E53">
+        <v>-0.0317203141670397</v>
+      </c>
+      <c r="F53">
+        <v>0.07240964614011042</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01538179410435827</v>
+        <v>0.02211281237670346</v>
       </c>
       <c r="C54">
-        <v>0.04333636808658173</v>
+        <v>-0.01255839000118315</v>
       </c>
       <c r="D54">
-        <v>0.01229486252564661</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03428444484795882</v>
+      </c>
+      <c r="E54">
+        <v>-0.01734614518863892</v>
+      </c>
+      <c r="F54">
+        <v>-0.002578984945236394</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.02385067774739947</v>
+        <v>0.1140462814730756</v>
       </c>
       <c r="C55">
-        <v>0.08571960998535776</v>
+        <v>-0.01649189885675165</v>
       </c>
       <c r="D55">
-        <v>-0.005387783407283127</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.009472240422579277</v>
+      </c>
+      <c r="E55">
+        <v>-0.028306126520201</v>
+      </c>
+      <c r="F55">
+        <v>0.04690936736241534</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.03150690068640564</v>
+        <v>0.1769253607099548</v>
       </c>
       <c r="C56">
-        <v>0.1583110479062973</v>
+        <v>-0.01604553086598092</v>
       </c>
       <c r="D56">
-        <v>0.03646735828961768</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.001572530599060181</v>
+      </c>
+      <c r="E56">
+        <v>-0.03672841700444626</v>
+      </c>
+      <c r="F56">
+        <v>0.05105859221310458</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.01263925963708319</v>
+        <v>0.04694992168193921</v>
       </c>
       <c r="C58">
-        <v>0.05069006842105037</v>
+        <v>-0.00105941276631123</v>
       </c>
       <c r="D58">
-        <v>-0.002726757281176741</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.06703155499601993</v>
+      </c>
+      <c r="E58">
+        <v>-0.02728647871141944</v>
+      </c>
+      <c r="F58">
+        <v>-0.03599147439314618</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.01121059549905479</v>
+        <v>0.1678378171548586</v>
       </c>
       <c r="C59">
-        <v>0.07050088532977998</v>
+        <v>-0.0196038745110022</v>
       </c>
       <c r="D59">
-        <v>0.2316713474506566</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2190979973380535</v>
+      </c>
+      <c r="E59">
+        <v>0.04385106176403172</v>
+      </c>
+      <c r="F59">
+        <v>-0.03552596832526287</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.02416045376699123</v>
+        <v>0.2315404728722443</v>
       </c>
       <c r="C60">
-        <v>0.2744873920013503</v>
+        <v>0.00260076314562344</v>
       </c>
       <c r="D60">
-        <v>0.02390426703929854</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04157312868739348</v>
+      </c>
+      <c r="E60">
+        <v>-0.01118636684835572</v>
+      </c>
+      <c r="F60">
+        <v>-0.006000345683532555</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.02918439657891498</v>
+        <v>0.08285009300499711</v>
       </c>
       <c r="C61">
-        <v>0.1293360991922062</v>
+        <v>-0.01266207287757819</v>
       </c>
       <c r="D61">
-        <v>-0.0209936177460885</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1156229271922016</v>
+      </c>
+      <c r="E61">
+        <v>-0.0384931963292861</v>
+      </c>
+      <c r="F61">
+        <v>0.01131813694875894</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.03357954824005441</v>
+        <v>0.1704597553308367</v>
       </c>
       <c r="C62">
-        <v>0.1625333919773903</v>
+        <v>-0.01936803079160195</v>
       </c>
       <c r="D62">
-        <v>0.02950346691574194</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.00769553852773637</v>
+      </c>
+      <c r="E62">
+        <v>-0.0357464707406238</v>
+      </c>
+      <c r="F62">
+        <v>0.0348220728751749</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01161944478174652</v>
+        <v>0.04508578296311192</v>
       </c>
       <c r="C63">
-        <v>0.05579382690503416</v>
+        <v>-0.002404256851696831</v>
       </c>
       <c r="D63">
-        <v>-0.006146260074772259</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05786900744183048</v>
+      </c>
+      <c r="E63">
+        <v>-0.02023515622348146</v>
+      </c>
+      <c r="F63">
+        <v>0.005299300755626275</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.02260341407026691</v>
+        <v>0.1108820193946507</v>
       </c>
       <c r="C64">
-        <v>0.09894146299529821</v>
+        <v>-0.01170212183293249</v>
       </c>
       <c r="D64">
-        <v>0.0005935938295956774</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04226853338698226</v>
+      </c>
+      <c r="E64">
+        <v>-0.0231697725598445</v>
+      </c>
+      <c r="F64">
+        <v>0.02612382674057134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.03728668004850658</v>
+        <v>0.1469723290501329</v>
       </c>
       <c r="C65">
-        <v>0.1027845606134351</v>
+        <v>-0.03238632315320033</v>
       </c>
       <c r="D65">
-        <v>0.02094983778191833</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04263505903472395</v>
+      </c>
+      <c r="E65">
+        <v>-0.002881608975523865</v>
+      </c>
+      <c r="F65">
+        <v>0.03863631102614393</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.04035804770667758</v>
+        <v>0.1259349197344722</v>
       </c>
       <c r="C66">
-        <v>0.2059994776375526</v>
+        <v>-0.01479285453025119</v>
       </c>
       <c r="D66">
-        <v>-0.02308801768393344</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1418953922321726</v>
+      </c>
+      <c r="E66">
+        <v>-0.06679739811001924</v>
+      </c>
+      <c r="F66">
+        <v>0.03056875080717091</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01463147307520125</v>
+        <v>0.06110409459384395</v>
       </c>
       <c r="C67">
-        <v>0.06255526774620207</v>
+        <v>-0.003242677628946244</v>
       </c>
       <c r="D67">
-        <v>-0.0011034472504961</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05631359891156252</v>
+      </c>
+      <c r="E67">
+        <v>-0.01783506456929961</v>
+      </c>
+      <c r="F67">
+        <v>-0.0333685189387438</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.01459863630332202</v>
+        <v>0.1164042106378857</v>
       </c>
       <c r="C68">
-        <v>0.01397775089717161</v>
+        <v>-0.02886431101987059</v>
       </c>
       <c r="D68">
-        <v>0.2028141485025469</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2599238191761876</v>
+      </c>
+      <c r="E68">
+        <v>0.08617310687887071</v>
+      </c>
+      <c r="F68">
+        <v>0.005931324894717846</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.005656419443164809</v>
+        <v>0.03945636677693436</v>
       </c>
       <c r="C69">
-        <v>0.03189287020444893</v>
+        <v>-0.001323923416317515</v>
       </c>
       <c r="D69">
-        <v>0.01157995842012668</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007429178911053039</v>
+      </c>
+      <c r="E69">
+        <v>-0.02338196302755631</v>
+      </c>
+      <c r="F69">
+        <v>-0.001293267691797691</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.001661801145149145</v>
+        <v>0.06530935546115946</v>
       </c>
       <c r="C70">
-        <v>0.0284680354999544</v>
+        <v>0.02816082340949993</v>
       </c>
       <c r="D70">
-        <v>-0.001381557762918123</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02576758107984388</v>
+      </c>
+      <c r="E70">
+        <v>0.04270886462263317</v>
+      </c>
+      <c r="F70">
+        <v>-0.1848830994838463</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.01820750926084421</v>
+        <v>0.1364935843547332</v>
       </c>
       <c r="C71">
-        <v>0.01745991617972807</v>
+        <v>-0.03386137944104126</v>
       </c>
       <c r="D71">
-        <v>0.2109242904063144</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2741480603697044</v>
+      </c>
+      <c r="E71">
+        <v>0.09597916668606263</v>
+      </c>
+      <c r="F71">
+        <v>0.01231277613763559</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.03529198397903326</v>
+        <v>0.1417003075459708</v>
       </c>
       <c r="C72">
-        <v>0.1149477381679976</v>
+        <v>-0.02589358503737103</v>
       </c>
       <c r="D72">
-        <v>0.04218386123202077</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0009756527975526992</v>
+      </c>
+      <c r="E72">
+        <v>-0.03906086566831615</v>
+      </c>
+      <c r="F72">
+        <v>0.03541322147935946</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.03289516633397813</v>
+        <v>0.2009480986795286</v>
       </c>
       <c r="C73">
-        <v>0.2000923997152838</v>
+        <v>-0.01295941884285857</v>
       </c>
       <c r="D73">
-        <v>0.07209543145560159</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01615361839090486</v>
+      </c>
+      <c r="E73">
+        <v>-0.06504679462990584</v>
+      </c>
+      <c r="F73">
+        <v>0.03798095074739416</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.01933909603576777</v>
+        <v>0.0950137651264672</v>
       </c>
       <c r="C74">
-        <v>0.110787478328416</v>
+        <v>-0.01314398912720725</v>
       </c>
       <c r="D74">
-        <v>0.0262658305807367</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0179646411703948</v>
+      </c>
+      <c r="E74">
+        <v>-0.04443534249956758</v>
+      </c>
+      <c r="F74">
+        <v>0.05674917950902419</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.0407552705718222</v>
+        <v>0.1285930614332725</v>
       </c>
       <c r="C75">
-        <v>0.1305474119561513</v>
+        <v>-0.02761096774007476</v>
       </c>
       <c r="D75">
-        <v>0.03032627660651615</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03047861683954238</v>
+      </c>
+      <c r="E75">
+        <v>-0.058821859923785</v>
+      </c>
+      <c r="F75">
+        <v>0.01828529786320682</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0004135958683093123</v>
+        <v>0.001073446667139833</v>
       </c>
       <c r="C76">
-        <v>0.003374178138728803</v>
+        <v>-0.0002960734368488828</v>
       </c>
       <c r="D76">
-        <v>0.005129007904644463</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0008129206022168011</v>
+      </c>
+      <c r="E76">
+        <v>-0.000243320928714112</v>
+      </c>
+      <c r="F76">
+        <v>0.00121806541233865</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02444931922711825</v>
+        <v>0.08402634583174712</v>
       </c>
       <c r="C77">
-        <v>0.1053909400110028</v>
+        <v>-0.008577541166921056</v>
       </c>
       <c r="D77">
-        <v>-0.05109725213294599</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1135974237661111</v>
+      </c>
+      <c r="E77">
+        <v>-0.03766845056782663</v>
+      </c>
+      <c r="F77">
+        <v>0.02931514468843774</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.05325502521618525</v>
+        <v>0.1008298990121585</v>
       </c>
       <c r="C78">
-        <v>0.1330643438061981</v>
+        <v>-0.03948211451702004</v>
       </c>
       <c r="D78">
-        <v>0.007683374912674911</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1163776695681464</v>
+      </c>
+      <c r="E78">
+        <v>-0.07681654350596843</v>
+      </c>
+      <c r="F78">
+        <v>0.04597489706520761</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.03539058136002228</v>
+        <v>0.1643715595485606</v>
       </c>
       <c r="C79">
-        <v>0.1424731813080528</v>
+        <v>-0.02215311040360522</v>
       </c>
       <c r="D79">
-        <v>0.0370284546720653</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01590056463033497</v>
+      </c>
+      <c r="E79">
+        <v>-0.04682195589292409</v>
+      </c>
+      <c r="F79">
+        <v>0.01134585334540304</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.00803685839713749</v>
+        <v>0.08247722037967976</v>
       </c>
       <c r="C80">
-        <v>0.08574213601407658</v>
+        <v>0.0005716752447507422</v>
       </c>
       <c r="D80">
-        <v>0.008768517820653035</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0570978707675052</v>
+      </c>
+      <c r="E80">
+        <v>-0.03627205142464481</v>
+      </c>
+      <c r="F80">
+        <v>-0.02445874377922937</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.0422554857759697</v>
+        <v>0.1222820022493979</v>
       </c>
       <c r="C81">
-        <v>0.1446343013544418</v>
+        <v>-0.0315295742081953</v>
       </c>
       <c r="D81">
-        <v>0.02684432819589566</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0157399010050821</v>
+      </c>
+      <c r="E81">
+        <v>-0.05907498175295452</v>
+      </c>
+      <c r="F81">
+        <v>0.016677394319898</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.03641221971457186</v>
+        <v>0.1663934878524603</v>
       </c>
       <c r="C82">
-        <v>0.1624837188550203</v>
+        <v>-0.02390126840214605</v>
       </c>
       <c r="D82">
-        <v>0.03289203094342421</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.003981597057913872</v>
+      </c>
+      <c r="E82">
+        <v>-0.02863715339248158</v>
+      </c>
+      <c r="F82">
+        <v>0.08047463412137665</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.01817580322831043</v>
+        <v>0.06109339604847602</v>
       </c>
       <c r="C83">
-        <v>0.07081838998023864</v>
+        <v>-0.003311663338501004</v>
       </c>
       <c r="D83">
-        <v>0.01123063344628695</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04977366276493556</v>
+      </c>
+      <c r="E83">
+        <v>-0.005621781389278533</v>
+      </c>
+      <c r="F83">
+        <v>-0.03267600512450303</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.02584056688535963</v>
+        <v>0.05800427037057966</v>
       </c>
       <c r="C84">
-        <v>0.07580848194453632</v>
+        <v>-0.01099978334156562</v>
       </c>
       <c r="D84">
-        <v>-0.01847483057543713</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06568563213160303</v>
+      </c>
+      <c r="E84">
+        <v>-0.007688890297848192</v>
+      </c>
+      <c r="F84">
+        <v>0.004376325892324054</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.03698497652646473</v>
+        <v>0.1369235285556852</v>
       </c>
       <c r="C85">
-        <v>0.1204592596152387</v>
+        <v>-0.02752539279747716</v>
       </c>
       <c r="D85">
-        <v>0.02392672643907346</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01154079668726795</v>
+      </c>
+      <c r="E85">
+        <v>-0.03950656850040297</v>
+      </c>
+      <c r="F85">
+        <v>0.04539230896389011</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.00705998965966305</v>
+        <v>0.09372394714820385</v>
       </c>
       <c r="C86">
-        <v>0.08316508192930712</v>
+        <v>0.006614457835751228</v>
       </c>
       <c r="D86">
-        <v>0.2830695889007152</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.042140336919077</v>
+      </c>
+      <c r="E86">
+        <v>-0.2095305578428066</v>
+      </c>
+      <c r="F86">
+        <v>-0.9097732358482772</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.03840927073758254</v>
+        <v>0.09695263342970323</v>
       </c>
       <c r="C87">
-        <v>0.1079199796243517</v>
+        <v>-0.02053319489580974</v>
       </c>
       <c r="D87">
-        <v>-0.06048064690769248</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09510511750379932</v>
+      </c>
+      <c r="E87">
+        <v>0.0519588019905328</v>
+      </c>
+      <c r="F87">
+        <v>0.05308591529917933</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01262581471178729</v>
+        <v>0.06049369482710849</v>
       </c>
       <c r="C88">
-        <v>0.05842894714887038</v>
+        <v>-0.002426776876508563</v>
       </c>
       <c r="D88">
-        <v>-0.01364430872740208</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05026607541076289</v>
+      </c>
+      <c r="E88">
+        <v>-0.02489177297943357</v>
+      </c>
+      <c r="F88">
+        <v>0.01268506068033524</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.0001414778683308439</v>
+        <v>0.1341241362092832</v>
       </c>
       <c r="C89">
-        <v>0.03548989473923471</v>
+        <v>-0.01150003357844248</v>
       </c>
       <c r="D89">
-        <v>0.2640504577168091</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2522359004637115</v>
+      </c>
+      <c r="E89">
+        <v>0.09030228187271928</v>
+      </c>
+      <c r="F89">
+        <v>-0.00775823498989993</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.0170693019627167</v>
+        <v>0.1495173762005982</v>
       </c>
       <c r="C90">
-        <v>0.01842288687345469</v>
+        <v>-0.02964948845652873</v>
       </c>
       <c r="D90">
-        <v>0.2257346144005984</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2685578117891314</v>
+      </c>
+      <c r="E90">
+        <v>0.1111154501164344</v>
+      </c>
+      <c r="F90">
+        <v>-0.001553238298879398</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.02250646304985289</v>
+        <v>0.120236274758633</v>
       </c>
       <c r="C91">
-        <v>0.09306040268190587</v>
+        <v>-0.01842838881617058</v>
       </c>
       <c r="D91">
-        <v>0.01775877778383752</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01330504646959134</v>
+      </c>
+      <c r="E91">
+        <v>-0.05674476452592371</v>
+      </c>
+      <c r="F91">
+        <v>-0.002118234100798299</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.001163924486539574</v>
+        <v>0.1475810417262171</v>
       </c>
       <c r="C92">
-        <v>0.03045130475607456</v>
+        <v>-0.02158215137415824</v>
       </c>
       <c r="D92">
-        <v>0.2403289757280231</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2914586142226303</v>
+      </c>
+      <c r="E92">
+        <v>0.1004936946879296</v>
+      </c>
+      <c r="F92">
+        <v>-0.01326038067374372</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.01335350849418687</v>
+        <v>0.1516583253325835</v>
       </c>
       <c r="C93">
-        <v>0.0274534860154013</v>
+        <v>-0.02556964244639682</v>
       </c>
       <c r="D93">
-        <v>0.2438152892692744</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2676732062996262</v>
+      </c>
+      <c r="E93">
+        <v>0.07720866263345552</v>
+      </c>
+      <c r="F93">
+        <v>0.003393615419920133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.04032122742397128</v>
+        <v>0.131594917627269</v>
       </c>
       <c r="C94">
-        <v>0.15416053019912</v>
+        <v>-0.02459356104395991</v>
       </c>
       <c r="D94">
-        <v>0.03532196712715099</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04284692451157528</v>
+      </c>
+      <c r="E94">
+        <v>-0.0581668049608124</v>
+      </c>
+      <c r="F94">
+        <v>0.03657158474229575</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.02469449378375851</v>
+        <v>0.1270888378377618</v>
       </c>
       <c r="C95">
-        <v>0.1466136256942601</v>
+        <v>-0.004536795493956443</v>
       </c>
       <c r="D95">
-        <v>-0.022687040240551</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09120718904088258</v>
+      </c>
+      <c r="E95">
+        <v>-0.04594340830763825</v>
+      </c>
+      <c r="F95">
+        <v>-0.00773843591384201</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.976852302378548</v>
+        <v>0.1050223482220704</v>
       </c>
       <c r="C96">
-        <v>0.1929828903157043</v>
+        <v>0.9879628945287717</v>
       </c>
       <c r="D96">
-        <v>0.02623454728895861</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.04074373267642373</v>
+      </c>
+      <c r="E96">
+        <v>-0.05624228660060207</v>
+      </c>
+      <c r="F96">
+        <v>0.04270782745980248</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.003296888020488408</v>
+        <v>0.1931000587816691</v>
       </c>
       <c r="C97">
-        <v>0.1560728285376982</v>
+        <v>0.008367885476589466</v>
       </c>
       <c r="D97">
-        <v>0.1219625695307974</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01617791478685494</v>
+      </c>
+      <c r="E97">
+        <v>-0.01639134095433467</v>
+      </c>
+      <c r="F97">
+        <v>-0.09259569388454378</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.02434966848685036</v>
+        <v>0.2048477207761603</v>
       </c>
       <c r="C98">
-        <v>0.1889596334110206</v>
+        <v>-0.007557467779113603</v>
       </c>
       <c r="D98">
-        <v>0.04304275394272051</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.009390517383699998</v>
+      </c>
+      <c r="E98">
+        <v>0.08506708600655524</v>
+      </c>
+      <c r="F98">
+        <v>-0.0957670193204075</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.003657930051438116</v>
+        <v>0.05638317389611298</v>
       </c>
       <c r="C99">
-        <v>0.05489976408452561</v>
+        <v>0.004495612140266357</v>
       </c>
       <c r="D99">
-        <v>0.01201795376116096</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03926513538422759</v>
+      </c>
+      <c r="E99">
+        <v>-0.02345359676121725</v>
+      </c>
+      <c r="F99">
+        <v>0.001648504038150286</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.008104317087262631</v>
+        <v>0.1261660756864275</v>
       </c>
       <c r="C100">
-        <v>0.237810712999146</v>
+        <v>0.05281620876049432</v>
       </c>
       <c r="D100">
-        <v>-0.6371678534244082</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3441424798140056</v>
+      </c>
+      <c r="E100">
+        <v>0.889485460655892</v>
+      </c>
+      <c r="F100">
+        <v>-0.13623856185152</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01285017266414578</v>
+        <v>0.02740577804335213</v>
       </c>
       <c r="C101">
-        <v>0.02789395157837435</v>
+        <v>-0.00815869038404898</v>
       </c>
       <c r="D101">
-        <v>0.01107827515382113</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03258756860974919</v>
+      </c>
+      <c r="E101">
+        <v>-0.01071983233878581</v>
+      </c>
+      <c r="F101">
+        <v>-0.01182730081032174</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
